--- a/Apoio/tabelaConversao.xlsx
+++ b/Apoio/tabelaConversao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carol\Documents\07 - PythonProjects\processoSeletivoVK\Apoio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2926C1D5-6159-4482-9A55-85E5846532BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EA6BB8-9747-4DB5-8FAA-B40F6CFCB76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{B7FC4FFE-B0C9-4352-84E0-9483B3706A35}"/>
   </bookViews>
@@ -70,17 +70,25 @@
     <t xml:space="preserve">Dados gerados através de código em python. </t>
   </si>
   <si>
-    <t xml:space="preserve">Repo: </t>
+    <t>Link repositório GitHub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,17 +126,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -493,7 +506,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,10 +544,10 @@
       <c r="C2">
         <v>9.35E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>12.9032</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>137.93100000000001</v>
       </c>
     </row>
@@ -548,10 +561,10 @@
       <c r="C3">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>13.541700000000001</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>151.1628</v>
       </c>
     </row>
@@ -565,10 +578,10 @@
       <c r="C4">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>128.57140000000001</v>
       </c>
     </row>
@@ -582,10 +595,10 @@
       <c r="C5">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>12.765000000000001</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>150</v>
       </c>
     </row>
@@ -599,34 +612,37 @@
       <c r="C6">
         <v>7.7600000000000002E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>13.793100000000001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>177.77780000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A11:C11" r:id="rId1" display="Link repositório GitHub" xr:uid="{C9027A08-10CA-427D-9538-BADD40A4DC88}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>